--- a/medicine/Psychotrope/Frédéric_Godet_(homme_politique)/Frédéric_Godet_(homme_politique).xlsx
+++ b/medicine/Psychotrope/Frédéric_Godet_(homme_politique)/Frédéric_Godet_(homme_politique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_Godet_(homme_politique)</t>
+          <t>Frédéric_Godet_(homme_politique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frédéric Godet est un homme politique français. Il est né le 6 septembre 1850 à Verrue et il est décédé le 5 mai 1932 à Châtellerault.
 Viticulteur, il est maire d'Orches, conseiller d'arrondissement puis conseiller général. Il est député de la Vienne de 1902 à 1910 et de 1914 à 1919, siégeant sur les bancs radicaux.
-Il est l'un des douze secrétaires du comité exécutif du Parti républicain, radical et radical-socialiste en 1905[1].
+Il est l'un des douze secrétaires du comité exécutif du Parti républicain, radical et radical-socialiste en 1905.
 </t>
         </is>
       </c>
